--- a/grupos/1DM - Estadisticos 20211.xlsx
+++ b/grupos/1DM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="181">
   <si>
     <t>Materia</t>
   </si>
@@ -215,16 +215,16 @@
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>Herrera Serrano Mayra Iliana</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
     <t>Morales Vallejo Jorge Luis</t>
@@ -1049,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -1103,7 +1103,7 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U4">
         <v>10</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y4">
         <v>8</v>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -1180,7 +1180,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>-1</v>
@@ -1203,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1257,7 +1257,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U6">
         <v>7</v>
@@ -1269,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y6">
         <v>6</v>
@@ -1280,19 +1280,19 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1334,19 +1334,19 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U7">
         <v>10</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W7">
         <v>10</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y7">
         <v>7</v>
@@ -1357,19 +1357,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1411,19 +1411,19 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U8">
         <v>10</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W8">
         <v>10</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y8">
         <v>7</v>
@@ -1434,19 +1434,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1488,19 +1488,19 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>9</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W9">
         <v>6</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y9">
         <v>6</v>
@@ -1511,19 +1511,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1565,19 +1565,19 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U10">
         <v>9</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W10">
         <v>7</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y10">
         <v>7</v>
@@ -1588,7 +1588,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -1642,7 +1642,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U11">
         <v>9</v>
@@ -1654,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y11">
         <v>8</v>
@@ -1665,19 +1665,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -1719,19 +1719,19 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U12">
         <v>10</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W12">
         <v>10</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>8</v>
@@ -1742,19 +1742,19 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1796,19 +1796,19 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U13">
         <v>9</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W13">
         <v>10</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y13">
         <v>7</v>
@@ -1819,19 +1819,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -1873,19 +1873,19 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U14">
         <v>9</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W14">
         <v>8</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y14">
         <v>7</v>
@@ -1973,7 +1973,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1985,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -2027,7 +2027,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U16">
         <v>6</v>
@@ -2039,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y16">
         <v>6</v>
@@ -2127,19 +2127,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>9</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -2181,19 +2181,19 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <v>9</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W18">
         <v>9</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y18">
         <v>6</v>
@@ -2204,7 +2204,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -2258,7 +2258,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U19">
         <v>-1</v>
@@ -2281,7 +2281,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -2335,7 +2335,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U20">
         <v>-1</v>
@@ -2358,7 +2358,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -2370,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -2412,7 +2412,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <v>8</v>
@@ -2424,7 +2424,7 @@
         <v>6</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y21">
         <v>6</v>
@@ -2435,7 +2435,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2489,7 +2489,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U22">
         <v>-1</v>
@@ -2501,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y22">
         <v>6</v>
@@ -2512,19 +2512,19 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>9</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -2566,19 +2566,19 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U23">
         <v>9</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W23">
         <v>9</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y23">
         <v>7</v>
@@ -2589,7 +2589,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -2643,7 +2643,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U24">
         <v>6</v>
@@ -2666,19 +2666,19 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>9</v>
@@ -2720,19 +2720,19 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U25">
         <v>10</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W25">
         <v>10</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y25">
         <v>9</v>
@@ -2743,19 +2743,19 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -2797,19 +2797,19 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U26">
         <v>10</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W26">
         <v>10</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2820,19 +2820,19 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2874,19 +2874,19 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U27">
         <v>9</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W27">
         <v>10</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y27">
         <v>7</v>
@@ -2897,7 +2897,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -2951,7 +2951,7 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U28">
         <v>-1</v>
@@ -2974,7 +2974,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -3028,7 +3028,7 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U29">
         <v>8</v>
@@ -3051,19 +3051,19 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>9</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -3105,19 +3105,19 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U30">
         <v>8</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W30">
         <v>9</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y30">
         <v>6</v>
@@ -3128,19 +3128,19 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -3182,19 +3182,19 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U31">
         <v>10</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W31">
         <v>10</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y31">
         <v>7</v>
@@ -3205,19 +3205,19 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3259,19 +3259,19 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U32">
         <v>10</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W32">
         <v>10</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y32">
         <v>6</v>
@@ -3282,19 +3282,19 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>9</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <v>8</v>
@@ -3336,19 +3336,19 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U33">
         <v>8</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W33">
         <v>9</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y33">
         <v>8</v>
@@ -3359,7 +3359,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -3371,7 +3371,7 @@
         <v>6</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -3413,7 +3413,7 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U34">
         <v>6</v>
@@ -3425,7 +3425,7 @@
         <v>6</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3436,7 +3436,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -3448,7 +3448,7 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -3490,7 +3490,7 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U35">
         <v>9</v>
@@ -3502,7 +3502,7 @@
         <v>9</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y35">
         <v>7</v>
@@ -3513,19 +3513,19 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>8</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -3567,19 +3567,19 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U36">
         <v>10</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W36">
         <v>8</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y36">
         <v>6</v>
@@ -3590,19 +3590,19 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>7</v>
@@ -3644,19 +3644,19 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U37">
         <v>10</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W37">
         <v>10</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y37">
         <v>7</v>
@@ -3667,19 +3667,19 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>7</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>-1</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -3721,19 +3721,19 @@
         <v>-1</v>
       </c>
       <c r="T38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U38">
         <v>7</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y38">
         <v>6</v>
@@ -3744,7 +3744,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -3798,7 +3798,7 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U39">
         <v>-1</v>
@@ -3821,7 +3821,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -3875,7 +3875,7 @@
         <v>-1</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U40">
         <v>6</v>
@@ -3898,7 +3898,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -3952,7 +3952,7 @@
         <v>-1</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U41">
         <v>6</v>
@@ -3975,7 +3975,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -3987,7 +3987,7 @@
         <v>7</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -4029,7 +4029,7 @@
         <v>-1</v>
       </c>
       <c r="T42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U42">
         <v>8</v>
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y42">
         <v>7</v>
@@ -4052,7 +4052,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -4064,7 +4064,7 @@
         <v>6</v>
       </c>
       <c r="F43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -4106,7 +4106,7 @@
         <v>-1</v>
       </c>
       <c r="T43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U43">
         <v>7</v>
@@ -4118,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4129,19 +4129,19 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
       <c r="D44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="F44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4183,19 +4183,19 @@
         <v>-1</v>
       </c>
       <c r="T44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U44">
         <v>7</v>
       </c>
       <c r="V44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W44">
         <v>10</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y44">
         <v>6</v>
@@ -4206,19 +4206,19 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>7</v>
       </c>
       <c r="D45">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>6</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -4260,19 +4260,19 @@
         <v>-1</v>
       </c>
       <c r="T45">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U45">
         <v>7</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W45">
         <v>6</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4283,19 +4283,19 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>6</v>
       </c>
       <c r="D46">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -4337,19 +4337,19 @@
         <v>-1</v>
       </c>
       <c r="T46">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U46">
         <v>6</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W46">
         <v>6</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y46">
         <v>6</v>
@@ -4420,27 +4420,30 @@
         <v>43</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>51.16</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>7.4</v>
+      </c>
       <c r="I2">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>48.84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -4449,27 +4452,30 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>67.44</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>6.8</v>
+      </c>
       <c r="I3">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -4478,27 +4484,30 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>74.42</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>8.300000000000001</v>
+      </c>
       <c r="I4">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -4507,30 +4516,30 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>67.44</v>
+        <v>74.42</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>32.56</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -4539,25 +4548,25 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>74.42</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>16.28</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>25.58</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4646,7 +4655,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4686,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4726,7 +4735,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4746,7 +4755,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4766,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4806,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4846,7 +4855,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4866,7 +4875,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4886,7 +4895,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4926,7 +4935,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4966,7 +4975,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4986,7 +4995,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5006,7 +5015,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5046,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5086,7 +5095,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5106,7 +5115,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5126,7 +5135,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5166,7 +5175,7 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5206,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5226,7 +5235,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5246,7 +5255,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5286,7 +5295,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5326,7 +5335,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5346,7 +5355,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5366,7 +5375,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5406,7 +5415,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5446,7 +5455,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5466,7 +5475,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5486,7 +5495,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5526,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5566,7 +5575,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5586,7 +5595,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5606,7 +5615,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5646,7 +5655,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5686,7 +5695,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5706,7 +5715,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5726,7 +5735,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5766,7 +5775,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5806,7 +5815,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5826,7 +5835,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5846,7 +5855,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5886,7 +5895,7 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5926,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5946,7 +5955,7 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5966,7 +5975,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6006,7 +6015,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6046,7 +6055,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6066,7 +6075,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6086,7 +6095,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6126,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6166,7 +6175,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6186,7 +6195,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6206,7 +6215,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6246,7 +6255,7 @@
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6286,7 +6295,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6306,7 +6315,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6326,7 +6335,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6366,7 +6375,7 @@
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6406,7 +6415,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6426,7 +6435,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6446,7 +6455,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6486,7 +6495,7 @@
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6526,7 +6535,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6546,7 +6555,7 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6566,7 +6575,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6606,7 +6615,7 @@
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6646,7 +6655,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6666,7 +6675,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6686,7 +6695,7 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6726,7 +6735,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6766,7 +6775,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6786,7 +6795,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6806,7 +6815,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6846,7 +6855,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6886,7 +6895,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6906,7 +6915,7 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6926,7 +6935,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6966,7 +6975,7 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7006,7 +7015,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7026,7 +7035,7 @@
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7046,7 +7055,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7086,7 +7095,7 @@
         <v>5</v>
       </c>
       <c r="F124" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7126,7 +7135,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7146,7 +7155,7 @@
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7166,7 +7175,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7206,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="F130" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7246,7 +7255,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7266,7 +7275,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7286,7 +7295,7 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7326,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7366,7 +7375,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7386,7 +7395,7 @@
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7406,7 +7415,7 @@
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7446,7 +7455,7 @@
         <v>5</v>
       </c>
       <c r="F142" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7486,7 +7495,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7506,7 +7515,7 @@
         <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7526,7 +7535,7 @@
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7566,7 +7575,7 @@
         <v>5</v>
       </c>
       <c r="F148" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7606,7 +7615,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7626,7 +7635,7 @@
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7646,7 +7655,7 @@
         <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7686,7 +7695,7 @@
         <v>5</v>
       </c>
       <c r="F154" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7726,7 +7735,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7746,7 +7755,7 @@
         <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7766,7 +7775,7 @@
         <v>8</v>
       </c>
       <c r="F158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7806,7 +7815,7 @@
         <v>5</v>
       </c>
       <c r="F160" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7846,7 +7855,7 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7866,7 +7875,7 @@
         <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7886,7 +7895,7 @@
         <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7926,7 +7935,7 @@
         <v>5</v>
       </c>
       <c r="F166" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7966,7 +7975,7 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7986,7 +7995,7 @@
         <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -8006,7 +8015,7 @@
         <v>8</v>
       </c>
       <c r="F170" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -8046,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="F172" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8086,7 +8095,7 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -8106,7 +8115,7 @@
         <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -8126,7 +8135,7 @@
         <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8166,7 +8175,7 @@
         <v>5</v>
       </c>
       <c r="F178" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8206,7 +8215,7 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8226,7 +8235,7 @@
         <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -8246,7 +8255,7 @@
         <v>8</v>
       </c>
       <c r="F182" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8286,7 +8295,7 @@
         <v>5</v>
       </c>
       <c r="F184" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8326,7 +8335,7 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8346,7 +8355,7 @@
         <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -8366,7 +8375,7 @@
         <v>8</v>
       </c>
       <c r="F188" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8406,7 +8415,7 @@
         <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -8446,7 +8455,7 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -8466,7 +8475,7 @@
         <v>9</v>
       </c>
       <c r="F193" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -8486,7 +8495,7 @@
         <v>8</v>
       </c>
       <c r="F194" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8526,7 +8535,7 @@
         <v>5</v>
       </c>
       <c r="F196" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8566,7 +8575,7 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8586,7 +8595,7 @@
         <v>9</v>
       </c>
       <c r="F199" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8606,7 +8615,7 @@
         <v>8</v>
       </c>
       <c r="F200" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8646,7 +8655,7 @@
         <v>5</v>
       </c>
       <c r="F202" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8686,7 +8695,7 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8706,7 +8715,7 @@
         <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8726,7 +8735,7 @@
         <v>8</v>
       </c>
       <c r="F206" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8766,7 +8775,7 @@
         <v>5</v>
       </c>
       <c r="F208" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8806,7 +8815,7 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8826,7 +8835,7 @@
         <v>9</v>
       </c>
       <c r="F211" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8846,7 +8855,7 @@
         <v>8</v>
       </c>
       <c r="F212" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8886,7 +8895,7 @@
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8926,7 +8935,7 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8946,7 +8955,7 @@
         <v>9</v>
       </c>
       <c r="F217" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8966,7 +8975,7 @@
         <v>8</v>
       </c>
       <c r="F218" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -9006,7 +9015,7 @@
         <v>5</v>
       </c>
       <c r="F220" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -9046,7 +9055,7 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -9066,7 +9075,7 @@
         <v>9</v>
       </c>
       <c r="F223" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -9086,7 +9095,7 @@
         <v>8</v>
       </c>
       <c r="F224" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -9126,7 +9135,7 @@
         <v>5</v>
       </c>
       <c r="F226" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -9166,7 +9175,7 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -9186,7 +9195,7 @@
         <v>9</v>
       </c>
       <c r="F229" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -9206,7 +9215,7 @@
         <v>8</v>
       </c>
       <c r="F230" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -9246,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="F232" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -9286,7 +9295,7 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -9306,7 +9315,7 @@
         <v>9</v>
       </c>
       <c r="F235" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -9326,7 +9335,7 @@
         <v>8</v>
       </c>
       <c r="F236" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -9366,7 +9375,7 @@
         <v>5</v>
       </c>
       <c r="F238" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9406,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9426,7 +9435,7 @@
         <v>9</v>
       </c>
       <c r="F241" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9446,7 +9455,7 @@
         <v>8</v>
       </c>
       <c r="F242" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9486,7 +9495,7 @@
         <v>5</v>
       </c>
       <c r="F244" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9526,7 +9535,7 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9546,7 +9555,7 @@
         <v>9</v>
       </c>
       <c r="F247" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9566,7 +9575,7 @@
         <v>8</v>
       </c>
       <c r="F248" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9606,7 +9615,7 @@
         <v>5</v>
       </c>
       <c r="F250" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9646,7 +9655,7 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9666,7 +9675,7 @@
         <v>9</v>
       </c>
       <c r="F253" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9686,7 +9695,7 @@
         <v>8</v>
       </c>
       <c r="F254" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9726,7 +9735,7 @@
         <v>5</v>
       </c>
       <c r="F256" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9766,7 +9775,7 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9786,7 +9795,7 @@
         <v>9</v>
       </c>
       <c r="F259" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -10561,7 +10570,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10594,6 +10603,397 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920358</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920358</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920284</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21330051920251</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21330051920253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21330051920257</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21330051920360</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21330051920266</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21330051920271</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21330051920278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>21330051920283</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>21330051920286</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/1DM - Estadisticos 20211.xlsx
+++ b/grupos/1DM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="181">
   <si>
     <t>Materia</t>
   </si>
@@ -242,15 +242,177 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALDUCIN</t>
+  </si>
+  <si>
+    <t>ARGÜELLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HIDALGO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MADRAZO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ONOFRE</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>TERCERO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>NARANJO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ARCADIO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>APONTE</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>MELANI PAOLA</t>
+  </si>
+  <si>
+    <t>ATZIN HEFZIBA</t>
+  </si>
+  <si>
+    <t>LIZBETH</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>ANGEL SAMUEL</t>
+  </si>
+  <si>
+    <t>ANA LILIANA</t>
+  </si>
+  <si>
+    <t>RICARDO ABEL</t>
+  </si>
+  <si>
+    <t>BIBIAN YANEL</t>
+  </si>
+  <si>
+    <t>ANGELO RENE</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>LUIS ARMANDO</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>MARIANA PAOLA</t>
+  </si>
+  <si>
+    <t>ANGELICA NAOMI</t>
+  </si>
+  <si>
+    <t>BRYAN ABRAHAM</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>NANCY PAOLA</t>
+  </si>
+  <si>
     <t>ACEVEDO</t>
   </si>
   <si>
-    <t>ALDUCIN</t>
-  </si>
-  <si>
-    <t>ARGÜELLO</t>
-  </si>
-  <si>
     <t>CRESCENCIO</t>
   </si>
   <si>
@@ -260,57 +422,21 @@
     <t>ESPINOZA</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>GAMEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HIDALGO</t>
-  </si>
-  <si>
     <t>DE JESUS</t>
   </si>
   <si>
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MADRAZO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>NAVARRO</t>
   </si>
   <si>
-    <t>ONOFRE</t>
-  </si>
-  <si>
     <t>PATIÑO</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>RIOS</t>
   </si>
   <si>
@@ -320,33 +446,12 @@
     <t>ROJAS</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>RUIZ</t>
   </si>
   <si>
     <t>SAN JUAN</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>TERCERO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
     <t>VARGAS</t>
   </si>
   <si>
@@ -356,96 +461,48 @@
     <t>VENEGAS</t>
   </si>
   <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>NARANJO</t>
-  </si>
-  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
     <t>PETRILLI</t>
   </si>
   <si>
     <t>CAMPOS</t>
   </si>
   <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ARCADIO</t>
-  </si>
-  <si>
     <t>SORIANO</t>
   </si>
   <si>
     <t>CORTES</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
     <t>BENITO</t>
   </si>
   <si>
-    <t>APONTE</t>
-  </si>
-  <si>
     <t>BERNABE</t>
   </si>
   <si>
-    <t>NAVA</t>
-  </si>
-  <si>
     <t>CASTRO</t>
   </si>
   <si>
     <t>ESTRADA</t>
   </si>
   <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
     <t>ARAUZ</t>
   </si>
   <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
     <t>AMECA</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>YARELI</t>
   </si>
   <si>
-    <t>MELANI PAOLA</t>
-  </si>
-  <si>
-    <t>ATZIN HEFZIBA</t>
-  </si>
-  <si>
     <t>NADIA</t>
   </si>
   <si>
@@ -455,9 +512,6 @@
     <t>SUGHEYDI JAZMIN</t>
   </si>
   <si>
-    <t>LIZBETH</t>
-  </si>
-  <si>
     <t>EMILIANO</t>
   </si>
   <si>
@@ -467,51 +521,18 @@
     <t>MARIA TERESA</t>
   </si>
   <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>ANGEL SAMUEL</t>
-  </si>
-  <si>
-    <t>ANA LILIANA</t>
-  </si>
-  <si>
     <t>VENUS</t>
   </si>
   <si>
-    <t>RICARDO ABEL</t>
-  </si>
-  <si>
-    <t>BIBIAN YANEL</t>
-  </si>
-  <si>
-    <t>ANGELO RENE</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
     <t>DULCE NAOMI</t>
   </si>
   <si>
-    <t>LUIS ARMANDO</t>
-  </si>
-  <si>
     <t>ALYN</t>
   </si>
   <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
     <t>MILDRED MARIANA</t>
   </si>
   <si>
-    <t>MARIANA PAOLA</t>
-  </si>
-  <si>
-    <t>ANGELICA NAOMI</t>
-  </si>
-  <si>
     <t>DUILIO</t>
   </si>
   <si>
@@ -524,9 +545,6 @@
     <t>JOSE ANGEL</t>
   </si>
   <si>
-    <t>BRYAN ABRAHAM</t>
-  </si>
-  <si>
     <t>ARANTXA</t>
   </si>
   <si>
@@ -536,21 +554,6 @@
     <t>BETHSABE</t>
   </si>
   <si>
-    <t>CARLOS ROBERTO</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
     <t>MAGDA SARAY</t>
   </si>
   <si>
@@ -558,9 +561,6 @@
   </si>
   <si>
     <t>EZEQUIEL</t>
-  </si>
-  <si>
-    <t>NANCY PAOLA</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W4">
         <v>10</v>
@@ -3442,7 +3442,7 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -3496,7 +3496,7 @@
         <v>9</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W35">
         <v>9</v>
@@ -3981,7 +3981,7 @@
         <v>8</v>
       </c>
       <c r="D42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -4035,7 +4035,7 @@
         <v>8</v>
       </c>
       <c r="V42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W42">
         <v>7</v>
@@ -4420,13 +4420,13 @@
         <v>43</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>51.16</v>
+        <v>58.14</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>7.4</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>48.84</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4608,7 +4608,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4640,16 +4640,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>21330051920251</v>
+        <v>21330051920252</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -4660,16 +4660,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>21330051920251</v>
+        <v>21330051920252</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -4680,236 +4680,236 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>21330051920251</v>
+        <v>21330051920252</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21330051920251</v>
+        <v>21330051920252</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21330051920251</v>
+        <v>21330051920252</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920251</v>
+        <v>21330051920253</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21330051920252</v>
+        <v>21330051920257</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920252</v>
+        <v>21330051920261</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21330051920252</v>
+        <v>21330051920261</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920252</v>
+        <v>21330051920261</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920252</v>
+        <v>21330051920261</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920252</v>
+        <v>21330051920261</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920253</v>
+        <v>21330051920261</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>21330051920253</v>
+        <v>21330051920360</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -4920,76 +4920,76 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21330051920253</v>
+        <v>21330051920262</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
         <v>114</v>
       </c>
-      <c r="D16" t="s">
-        <v>141</v>
-      </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920253</v>
+        <v>21330051920262</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
         <v>114</v>
       </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>21330051920253</v>
+        <v>21330051920262</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="D18" t="s">
-        <v>141</v>
-      </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>21330051920253</v>
+        <v>21330051920262</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
         <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -5000,16 +5000,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>21330051920254</v>
+        <v>21330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
         <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -5020,16 +5020,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21330051920254</v>
+        <v>21330051920265</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
         <v>115</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -5040,96 +5040,96 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920254</v>
+        <v>21330051920265</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
         <v>115</v>
       </c>
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21330051920254</v>
+        <v>21330051920265</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s">
-        <v>142</v>
-      </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21330051920254</v>
+        <v>21330051920265</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
         <v>115</v>
       </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920254</v>
+        <v>21330051920266</v>
       </c>
       <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920255</v>
+        <v>21330051920267</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -5140,16 +5140,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>21330051920255</v>
+        <v>21330051920267</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -5160,216 +5160,216 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>21330051920255</v>
+        <v>21330051920267</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>21330051920255</v>
+        <v>21330051920267</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>21330051920255</v>
+        <v>21330051920267</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>21330051920255</v>
+        <v>21330051920358</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920256</v>
+        <v>21330051920358</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920256</v>
+        <v>21330051920269</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920256</v>
+        <v>21330051920269</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920256</v>
+        <v>21330051920269</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920256</v>
+        <v>21330051920269</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920256</v>
+        <v>21330051920271</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920257</v>
+        <v>21330051920273</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -5380,16 +5380,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920257</v>
+        <v>21330051920273</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -5400,176 +5400,176 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920257</v>
+        <v>21330051920273</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920257</v>
+        <v>21330051920273</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>21330051920257</v>
+        <v>21330051920273</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>21330051920257</v>
+        <v>21330051920274</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>21330051920258</v>
+        <v>21330051920274</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>21330051920258</v>
+        <v>21330051920274</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>21330051920258</v>
+        <v>21330051920274</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>21330051920258</v>
+        <v>21330051920277</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21330051920258</v>
+        <v>21330051920277</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -5580,4222 +5580,322 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>21330051920258</v>
+        <v>21330051920281</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>21330051920259</v>
+        <v>21330051920281</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>21330051920259</v>
+        <v>21330051920281</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>21330051920259</v>
+        <v>21330051920281</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>21330051920259</v>
+        <v>21330051920282</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>21330051920259</v>
+        <v>21330051920282</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>21330051920259</v>
+        <v>21330051920282</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>21330051920260</v>
+        <v>21330051920282</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>21330051920260</v>
+        <v>21330051920283</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>21330051920260</v>
+        <v>21330051920284</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>21330051920260</v>
+        <v>21330051920284</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>21330051920260</v>
+        <v>21330051920285</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>21330051920260</v>
+        <v>21330051920285</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>21330051920261</v>
+        <v>21330051920285</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>21330051920261</v>
+        <v>21330051920285</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>21330051920261</v>
+        <v>21330051920288</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>21330051920261</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>21330051920261</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" t="s">
-        <v>149</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>21330051920261</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>21330051920360</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>21330051920360</v>
-      </c>
-      <c r="B69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>21330051920360</v>
-      </c>
-      <c r="B70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>21330051920360</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>21330051920360</v>
-      </c>
-      <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>21330051920360</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>21330051920262</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>21330051920262</v>
-      </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>21330051920262</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>21330051920262</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" t="s">
-        <v>151</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>21330051920262</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>21330051920262</v>
-      </c>
-      <c r="B79" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>21330051920263</v>
-      </c>
-      <c r="B80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>21330051920263</v>
-      </c>
-      <c r="B81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" t="s">
-        <v>142</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>21330051920263</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>21330051920263</v>
-      </c>
-      <c r="B83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" t="s">
-        <v>142</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>21330051920263</v>
-      </c>
-      <c r="B84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>21330051920263</v>
-      </c>
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>21330051920264</v>
-      </c>
-      <c r="B86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21330051920264</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D87" t="s">
-        <v>152</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>21330051920264</v>
-      </c>
-      <c r="B88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>21330051920264</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" t="s">
-        <v>152</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>21330051920264</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>21330051920264</v>
-      </c>
-      <c r="B91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D91" t="s">
-        <v>152</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>21330051920265</v>
-      </c>
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" t="s">
-        <v>153</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>21330051920265</v>
-      </c>
-      <c r="B93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D93" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>21330051920265</v>
-      </c>
-      <c r="B94" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" t="s">
-        <v>81</v>
-      </c>
-      <c r="D94" t="s">
-        <v>153</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>21330051920265</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" t="s">
-        <v>81</v>
-      </c>
-      <c r="D95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>21330051920265</v>
-      </c>
-      <c r="B96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C96" t="s">
-        <v>81</v>
-      </c>
-      <c r="D96" t="s">
-        <v>153</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>21330051920265</v>
-      </c>
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" t="s">
-        <v>81</v>
-      </c>
-      <c r="D97" t="s">
-        <v>153</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>21330051920266</v>
-      </c>
-      <c r="B98" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>21330051920266</v>
-      </c>
-      <c r="B99" t="s">
-        <v>87</v>
-      </c>
-      <c r="C99" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" t="s">
-        <v>154</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>21330051920266</v>
-      </c>
-      <c r="B100" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" t="s">
-        <v>154</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>21330051920266</v>
-      </c>
-      <c r="B101" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" t="s">
-        <v>154</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>21330051920266</v>
-      </c>
-      <c r="B102" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" t="s">
-        <v>154</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>21330051920266</v>
-      </c>
-      <c r="B103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>21330051920267</v>
-      </c>
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" t="s">
-        <v>124</v>
-      </c>
-      <c r="D104" t="s">
-        <v>155</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>21330051920267</v>
-      </c>
-      <c r="B105" t="s">
-        <v>88</v>
-      </c>
-      <c r="C105" t="s">
-        <v>124</v>
-      </c>
-      <c r="D105" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>21330051920267</v>
-      </c>
-      <c r="B106" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" t="s">
-        <v>155</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>21330051920267</v>
-      </c>
-      <c r="B107" t="s">
-        <v>88</v>
-      </c>
-      <c r="C107" t="s">
-        <v>124</v>
-      </c>
-      <c r="D107" t="s">
-        <v>155</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>21330051920267</v>
-      </c>
-      <c r="B108" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" t="s">
-        <v>124</v>
-      </c>
-      <c r="D108" t="s">
-        <v>155</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>21330051920267</v>
-      </c>
-      <c r="B109" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" t="s">
-        <v>124</v>
-      </c>
-      <c r="D109" t="s">
-        <v>155</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>21330051920358</v>
-      </c>
-      <c r="B110" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" t="s">
-        <v>156</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>21330051920358</v>
-      </c>
-      <c r="B111" t="s">
-        <v>89</v>
-      </c>
-      <c r="C111" t="s">
-        <v>125</v>
-      </c>
-      <c r="D111" t="s">
-        <v>156</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>21330051920358</v>
-      </c>
-      <c r="B112" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" t="s">
-        <v>125</v>
-      </c>
-      <c r="D112" t="s">
-        <v>156</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>21330051920358</v>
-      </c>
-      <c r="B113" t="s">
-        <v>89</v>
-      </c>
-      <c r="C113" t="s">
-        <v>125</v>
-      </c>
-      <c r="D113" t="s">
-        <v>156</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>21330051920358</v>
-      </c>
-      <c r="B114" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" t="s">
-        <v>125</v>
-      </c>
-      <c r="D114" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>21330051920358</v>
-      </c>
-      <c r="B115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115" t="s">
-        <v>125</v>
-      </c>
-      <c r="D115" t="s">
-        <v>156</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>21330051920268</v>
-      </c>
-      <c r="B116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" t="s">
-        <v>157</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>21330051920268</v>
-      </c>
-      <c r="B117" t="s">
-        <v>90</v>
-      </c>
-      <c r="C117" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" t="s">
-        <v>157</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>21330051920268</v>
-      </c>
-      <c r="B118" t="s">
-        <v>90</v>
-      </c>
-      <c r="C118" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" t="s">
-        <v>157</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>21330051920268</v>
-      </c>
-      <c r="B119" t="s">
-        <v>90</v>
-      </c>
-      <c r="C119" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" t="s">
-        <v>157</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>21330051920268</v>
-      </c>
-      <c r="B120" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" t="s">
-        <v>157</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>21330051920268</v>
-      </c>
-      <c r="B121" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" t="s">
-        <v>157</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>21330051920269</v>
-      </c>
-      <c r="B122" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" t="s">
-        <v>94</v>
-      </c>
-      <c r="D122" t="s">
-        <v>158</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>21330051920269</v>
-      </c>
-      <c r="B123" t="s">
-        <v>91</v>
-      </c>
-      <c r="C123" t="s">
-        <v>94</v>
-      </c>
-      <c r="D123" t="s">
-        <v>158</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>21330051920269</v>
-      </c>
-      <c r="B124" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" t="s">
-        <v>94</v>
-      </c>
-      <c r="D124" t="s">
-        <v>158</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>21330051920269</v>
-      </c>
-      <c r="B125" t="s">
-        <v>91</v>
-      </c>
-      <c r="C125" t="s">
-        <v>94</v>
-      </c>
-      <c r="D125" t="s">
-        <v>158</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>21330051920269</v>
-      </c>
-      <c r="B126" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" t="s">
-        <v>158</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>21330051920269</v>
-      </c>
-      <c r="B127" t="s">
-        <v>91</v>
-      </c>
-      <c r="C127" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" t="s">
-        <v>158</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>21330051920270</v>
-      </c>
-      <c r="B128" t="s">
-        <v>92</v>
-      </c>
-      <c r="C128" t="s">
-        <v>120</v>
-      </c>
-      <c r="D128" t="s">
-        <v>159</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>21330051920270</v>
-      </c>
-      <c r="B129" t="s">
-        <v>92</v>
-      </c>
-      <c r="C129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" t="s">
-        <v>159</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>21330051920270</v>
-      </c>
-      <c r="B130" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" t="s">
-        <v>120</v>
-      </c>
-      <c r="D130" t="s">
-        <v>159</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>21330051920270</v>
-      </c>
-      <c r="B131" t="s">
-        <v>92</v>
-      </c>
-      <c r="C131" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" t="s">
-        <v>159</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>21330051920270</v>
-      </c>
-      <c r="B132" t="s">
-        <v>92</v>
-      </c>
-      <c r="C132" t="s">
-        <v>120</v>
-      </c>
-      <c r="D132" t="s">
-        <v>159</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>21330051920270</v>
-      </c>
-      <c r="B133" t="s">
-        <v>92</v>
-      </c>
-      <c r="C133" t="s">
-        <v>120</v>
-      </c>
-      <c r="D133" t="s">
-        <v>159</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>21330051920271</v>
-      </c>
-      <c r="B134" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" t="s">
-        <v>127</v>
-      </c>
-      <c r="D134" t="s">
-        <v>160</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>21330051920271</v>
-      </c>
-      <c r="B135" t="s">
-        <v>93</v>
-      </c>
-      <c r="C135" t="s">
-        <v>127</v>
-      </c>
-      <c r="D135" t="s">
-        <v>160</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>21330051920271</v>
-      </c>
-      <c r="B136" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" t="s">
-        <v>127</v>
-      </c>
-      <c r="D136" t="s">
-        <v>160</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>21330051920271</v>
-      </c>
-      <c r="B137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" t="s">
-        <v>127</v>
-      </c>
-      <c r="D137" t="s">
-        <v>160</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>21330051920271</v>
-      </c>
-      <c r="B138" t="s">
-        <v>93</v>
-      </c>
-      <c r="C138" t="s">
-        <v>127</v>
-      </c>
-      <c r="D138" t="s">
-        <v>160</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>21330051920271</v>
-      </c>
-      <c r="B139" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" t="s">
-        <v>127</v>
-      </c>
-      <c r="D139" t="s">
-        <v>160</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>21330051920272</v>
-      </c>
-      <c r="B140" t="s">
-        <v>94</v>
-      </c>
-      <c r="C140" t="s">
-        <v>128</v>
-      </c>
-      <c r="D140" t="s">
-        <v>161</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>21330051920272</v>
-      </c>
-      <c r="B141" t="s">
-        <v>94</v>
-      </c>
-      <c r="C141" t="s">
-        <v>128</v>
-      </c>
-      <c r="D141" t="s">
-        <v>161</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>21330051920272</v>
-      </c>
-      <c r="B142" t="s">
-        <v>94</v>
-      </c>
-      <c r="C142" t="s">
-        <v>128</v>
-      </c>
-      <c r="D142" t="s">
-        <v>161</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>21330051920272</v>
-      </c>
-      <c r="B143" t="s">
-        <v>94</v>
-      </c>
-      <c r="C143" t="s">
-        <v>128</v>
-      </c>
-      <c r="D143" t="s">
-        <v>161</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>21330051920272</v>
-      </c>
-      <c r="B144" t="s">
-        <v>94</v>
-      </c>
-      <c r="C144" t="s">
-        <v>128</v>
-      </c>
-      <c r="D144" t="s">
-        <v>161</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>21330051920272</v>
-      </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" t="s">
-        <v>128</v>
-      </c>
-      <c r="D145" t="s">
-        <v>161</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>21330051920273</v>
-      </c>
-      <c r="B146" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" t="s">
-        <v>129</v>
-      </c>
-      <c r="D146" t="s">
-        <v>162</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>21330051920273</v>
-      </c>
-      <c r="B147" t="s">
-        <v>95</v>
-      </c>
-      <c r="C147" t="s">
-        <v>129</v>
-      </c>
-      <c r="D147" t="s">
-        <v>162</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>21330051920273</v>
-      </c>
-      <c r="B148" t="s">
-        <v>95</v>
-      </c>
-      <c r="C148" t="s">
-        <v>129</v>
-      </c>
-      <c r="D148" t="s">
-        <v>162</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>21330051920273</v>
-      </c>
-      <c r="B149" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" t="s">
-        <v>129</v>
-      </c>
-      <c r="D149" t="s">
-        <v>162</v>
-      </c>
-      <c r="E149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>21330051920273</v>
-      </c>
-      <c r="B150" t="s">
-        <v>95</v>
-      </c>
-      <c r="C150" t="s">
-        <v>129</v>
-      </c>
-      <c r="D150" t="s">
-        <v>162</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>21330051920273</v>
-      </c>
-      <c r="B151" t="s">
-        <v>95</v>
-      </c>
-      <c r="C151" t="s">
-        <v>129</v>
-      </c>
-      <c r="D151" t="s">
-        <v>162</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>21330051920274</v>
-      </c>
-      <c r="B152" t="s">
-        <v>96</v>
-      </c>
-      <c r="C152" t="s">
-        <v>83</v>
-      </c>
-      <c r="D152" t="s">
-        <v>163</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>21330051920274</v>
-      </c>
-      <c r="B153" t="s">
-        <v>96</v>
-      </c>
-      <c r="C153" t="s">
-        <v>83</v>
-      </c>
-      <c r="D153" t="s">
-        <v>163</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>21330051920274</v>
-      </c>
-      <c r="B154" t="s">
-        <v>96</v>
-      </c>
-      <c r="C154" t="s">
-        <v>83</v>
-      </c>
-      <c r="D154" t="s">
-        <v>163</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>21330051920274</v>
-      </c>
-      <c r="B155" t="s">
-        <v>96</v>
-      </c>
-      <c r="C155" t="s">
-        <v>83</v>
-      </c>
-      <c r="D155" t="s">
-        <v>163</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>21330051920274</v>
-      </c>
-      <c r="B156" t="s">
-        <v>96</v>
-      </c>
-      <c r="C156" t="s">
-        <v>83</v>
-      </c>
-      <c r="D156" t="s">
-        <v>163</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>21330051920274</v>
-      </c>
-      <c r="B157" t="s">
-        <v>96</v>
-      </c>
-      <c r="C157" t="s">
-        <v>83</v>
-      </c>
-      <c r="D157" t="s">
-        <v>163</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>21330051920361</v>
-      </c>
-      <c r="B158" t="s">
-        <v>96</v>
-      </c>
-      <c r="C158" t="s">
-        <v>103</v>
-      </c>
-      <c r="D158" t="s">
-        <v>164</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>21330051920361</v>
-      </c>
-      <c r="B159" t="s">
-        <v>96</v>
-      </c>
-      <c r="C159" t="s">
-        <v>103</v>
-      </c>
-      <c r="D159" t="s">
-        <v>164</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>21330051920361</v>
-      </c>
-      <c r="B160" t="s">
-        <v>96</v>
-      </c>
-      <c r="C160" t="s">
-        <v>103</v>
-      </c>
-      <c r="D160" t="s">
-        <v>164</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>21330051920361</v>
-      </c>
-      <c r="B161" t="s">
-        <v>96</v>
-      </c>
-      <c r="C161" t="s">
-        <v>103</v>
-      </c>
-      <c r="D161" t="s">
-        <v>164</v>
-      </c>
-      <c r="E161" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>21330051920361</v>
-      </c>
-      <c r="B162" t="s">
-        <v>96</v>
-      </c>
-      <c r="C162" t="s">
-        <v>103</v>
-      </c>
-      <c r="D162" t="s">
-        <v>164</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>21330051920361</v>
-      </c>
-      <c r="B163" t="s">
-        <v>96</v>
-      </c>
-      <c r="C163" t="s">
-        <v>103</v>
-      </c>
-      <c r="D163" t="s">
-        <v>164</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>21330051920275</v>
-      </c>
-      <c r="B164" t="s">
-        <v>97</v>
-      </c>
-      <c r="C164" t="s">
-        <v>103</v>
-      </c>
-      <c r="D164" t="s">
-        <v>165</v>
-      </c>
-      <c r="E164" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>21330051920275</v>
-      </c>
-      <c r="B165" t="s">
-        <v>97</v>
-      </c>
-      <c r="C165" t="s">
-        <v>103</v>
-      </c>
-      <c r="D165" t="s">
-        <v>165</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>21330051920275</v>
-      </c>
-      <c r="B166" t="s">
-        <v>97</v>
-      </c>
-      <c r="C166" t="s">
-        <v>103</v>
-      </c>
-      <c r="D166" t="s">
-        <v>165</v>
-      </c>
-      <c r="E166" t="s">
-        <v>5</v>
-      </c>
-      <c r="F166" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>21330051920275</v>
-      </c>
-      <c r="B167" t="s">
-        <v>97</v>
-      </c>
-      <c r="C167" t="s">
-        <v>103</v>
-      </c>
-      <c r="D167" t="s">
-        <v>165</v>
-      </c>
-      <c r="E167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F167" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>21330051920275</v>
-      </c>
-      <c r="B168" t="s">
-        <v>97</v>
-      </c>
-      <c r="C168" t="s">
-        <v>103</v>
-      </c>
-      <c r="D168" t="s">
-        <v>165</v>
-      </c>
-      <c r="E168" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>21330051920275</v>
-      </c>
-      <c r="B169" t="s">
-        <v>97</v>
-      </c>
-      <c r="C169" t="s">
-        <v>103</v>
-      </c>
-      <c r="D169" t="s">
-        <v>165</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>21330051920362</v>
-      </c>
-      <c r="B170" t="s">
-        <v>98</v>
-      </c>
-      <c r="C170" t="s">
-        <v>130</v>
-      </c>
-      <c r="D170" t="s">
-        <v>166</v>
-      </c>
-      <c r="E170" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>21330051920362</v>
-      </c>
-      <c r="B171" t="s">
-        <v>98</v>
-      </c>
-      <c r="C171" t="s">
-        <v>130</v>
-      </c>
-      <c r="D171" t="s">
-        <v>166</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>21330051920362</v>
-      </c>
-      <c r="B172" t="s">
-        <v>98</v>
-      </c>
-      <c r="C172" t="s">
-        <v>130</v>
-      </c>
-      <c r="D172" t="s">
-        <v>166</v>
-      </c>
-      <c r="E172" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>21330051920362</v>
-      </c>
-      <c r="B173" t="s">
-        <v>98</v>
-      </c>
-      <c r="C173" t="s">
-        <v>130</v>
-      </c>
-      <c r="D173" t="s">
-        <v>166</v>
-      </c>
-      <c r="E173" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>21330051920362</v>
-      </c>
-      <c r="B174" t="s">
-        <v>98</v>
-      </c>
-      <c r="C174" t="s">
-        <v>130</v>
-      </c>
-      <c r="D174" t="s">
-        <v>166</v>
-      </c>
-      <c r="E174" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>21330051920362</v>
-      </c>
-      <c r="B175" t="s">
-        <v>98</v>
-      </c>
-      <c r="C175" t="s">
-        <v>130</v>
-      </c>
-      <c r="D175" t="s">
-        <v>166</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>21330051920276</v>
-      </c>
-      <c r="B176" t="s">
-        <v>99</v>
-      </c>
-      <c r="C176" t="s">
-        <v>131</v>
-      </c>
-      <c r="D176" t="s">
-        <v>167</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>21330051920276</v>
-      </c>
-      <c r="B177" t="s">
-        <v>99</v>
-      </c>
-      <c r="C177" t="s">
-        <v>131</v>
-      </c>
-      <c r="D177" t="s">
-        <v>167</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>21330051920276</v>
-      </c>
-      <c r="B178" t="s">
-        <v>99</v>
-      </c>
-      <c r="C178" t="s">
-        <v>131</v>
-      </c>
-      <c r="D178" t="s">
-        <v>167</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>21330051920276</v>
-      </c>
-      <c r="B179" t="s">
-        <v>99</v>
-      </c>
-      <c r="C179" t="s">
-        <v>131</v>
-      </c>
-      <c r="D179" t="s">
-        <v>167</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>21330051920276</v>
-      </c>
-      <c r="B180" t="s">
-        <v>99</v>
-      </c>
-      <c r="C180" t="s">
-        <v>131</v>
-      </c>
-      <c r="D180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E180" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>21330051920276</v>
-      </c>
-      <c r="B181" t="s">
-        <v>99</v>
-      </c>
-      <c r="C181" t="s">
-        <v>131</v>
-      </c>
-      <c r="D181" t="s">
-        <v>167</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>21330051920277</v>
-      </c>
-      <c r="B182" t="s">
-        <v>100</v>
-      </c>
-      <c r="C182" t="s">
-        <v>132</v>
-      </c>
-      <c r="D182" t="s">
-        <v>168</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>21330051920277</v>
-      </c>
-      <c r="B183" t="s">
-        <v>100</v>
-      </c>
-      <c r="C183" t="s">
-        <v>132</v>
-      </c>
-      <c r="D183" t="s">
-        <v>168</v>
-      </c>
-      <c r="E183" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>21330051920277</v>
-      </c>
-      <c r="B184" t="s">
-        <v>100</v>
-      </c>
-      <c r="C184" t="s">
-        <v>132</v>
-      </c>
-      <c r="D184" t="s">
-        <v>168</v>
-      </c>
-      <c r="E184" t="s">
-        <v>5</v>
-      </c>
-      <c r="F184" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>21330051920277</v>
-      </c>
-      <c r="B185" t="s">
-        <v>100</v>
-      </c>
-      <c r="C185" t="s">
-        <v>132</v>
-      </c>
-      <c r="D185" t="s">
-        <v>168</v>
-      </c>
-      <c r="E185" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>21330051920277</v>
-      </c>
-      <c r="B186" t="s">
-        <v>100</v>
-      </c>
-      <c r="C186" t="s">
-        <v>132</v>
-      </c>
-      <c r="D186" t="s">
-        <v>168</v>
-      </c>
-      <c r="E186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>21330051920277</v>
-      </c>
-      <c r="B187" t="s">
-        <v>100</v>
-      </c>
-      <c r="C187" t="s">
-        <v>132</v>
-      </c>
-      <c r="D187" t="s">
-        <v>168</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>21330051920278</v>
-      </c>
-      <c r="B188" t="s">
-        <v>101</v>
-      </c>
-      <c r="C188" t="s">
-        <v>86</v>
-      </c>
-      <c r="D188" t="s">
-        <v>169</v>
-      </c>
-      <c r="E188" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>21330051920278</v>
-      </c>
-      <c r="B189" t="s">
-        <v>101</v>
-      </c>
-      <c r="C189" t="s">
-        <v>86</v>
-      </c>
-      <c r="D189" t="s">
-        <v>169</v>
-      </c>
-      <c r="E189" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>21330051920278</v>
-      </c>
-      <c r="B190" t="s">
-        <v>101</v>
-      </c>
-      <c r="C190" t="s">
-        <v>86</v>
-      </c>
-      <c r="D190" t="s">
-        <v>169</v>
-      </c>
-      <c r="E190" t="s">
-        <v>5</v>
-      </c>
-      <c r="F190" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>21330051920278</v>
-      </c>
-      <c r="B191" t="s">
-        <v>101</v>
-      </c>
-      <c r="C191" t="s">
-        <v>86</v>
-      </c>
-      <c r="D191" t="s">
-        <v>169</v>
-      </c>
-      <c r="E191" t="s">
-        <v>6</v>
-      </c>
-      <c r="F191" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>21330051920278</v>
-      </c>
-      <c r="B192" t="s">
-        <v>101</v>
-      </c>
-      <c r="C192" t="s">
-        <v>86</v>
-      </c>
-      <c r="D192" t="s">
-        <v>169</v>
-      </c>
-      <c r="E192" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>21330051920278</v>
-      </c>
-      <c r="B193" t="s">
-        <v>101</v>
-      </c>
-      <c r="C193" t="s">
-        <v>86</v>
-      </c>
-      <c r="D193" t="s">
-        <v>169</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>21330051920279</v>
-      </c>
-      <c r="B194" t="s">
-        <v>102</v>
-      </c>
-      <c r="C194" t="s">
-        <v>133</v>
-      </c>
-      <c r="D194" t="s">
-        <v>170</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>21330051920279</v>
-      </c>
-      <c r="B195" t="s">
-        <v>102</v>
-      </c>
-      <c r="C195" t="s">
-        <v>133</v>
-      </c>
-      <c r="D195" t="s">
-        <v>170</v>
-      </c>
-      <c r="E195" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>21330051920279</v>
-      </c>
-      <c r="B196" t="s">
-        <v>102</v>
-      </c>
-      <c r="C196" t="s">
-        <v>133</v>
-      </c>
-      <c r="D196" t="s">
-        <v>170</v>
-      </c>
-      <c r="E196" t="s">
-        <v>5</v>
-      </c>
-      <c r="F196" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>21330051920279</v>
-      </c>
-      <c r="B197" t="s">
-        <v>102</v>
-      </c>
-      <c r="C197" t="s">
-        <v>133</v>
-      </c>
-      <c r="D197" t="s">
-        <v>170</v>
-      </c>
-      <c r="E197" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>21330051920279</v>
-      </c>
-      <c r="B198" t="s">
-        <v>102</v>
-      </c>
-      <c r="C198" t="s">
-        <v>133</v>
-      </c>
-      <c r="D198" t="s">
-        <v>170</v>
-      </c>
-      <c r="E198" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>21330051920279</v>
-      </c>
-      <c r="B199" t="s">
-        <v>102</v>
-      </c>
-      <c r="C199" t="s">
-        <v>133</v>
-      </c>
-      <c r="D199" t="s">
-        <v>170</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>21330051920280</v>
-      </c>
-      <c r="B200" t="s">
-        <v>103</v>
-      </c>
-      <c r="C200" t="s">
-        <v>80</v>
-      </c>
-      <c r="D200" t="s">
-        <v>171</v>
-      </c>
-      <c r="E200" t="s">
-        <v>8</v>
-      </c>
-      <c r="F200" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>21330051920280</v>
-      </c>
-      <c r="B201" t="s">
-        <v>103</v>
-      </c>
-      <c r="C201" t="s">
-        <v>80</v>
-      </c>
-      <c r="D201" t="s">
-        <v>171</v>
-      </c>
-      <c r="E201" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>21330051920280</v>
-      </c>
-      <c r="B202" t="s">
-        <v>103</v>
-      </c>
-      <c r="C202" t="s">
-        <v>80</v>
-      </c>
-      <c r="D202" t="s">
-        <v>171</v>
-      </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>21330051920280</v>
-      </c>
-      <c r="B203" t="s">
-        <v>103</v>
-      </c>
-      <c r="C203" t="s">
-        <v>80</v>
-      </c>
-      <c r="D203" t="s">
-        <v>171</v>
-      </c>
-      <c r="E203" t="s">
-        <v>6</v>
-      </c>
-      <c r="F203" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>21330051920280</v>
-      </c>
-      <c r="B204" t="s">
-        <v>103</v>
-      </c>
-      <c r="C204" t="s">
-        <v>80</v>
-      </c>
-      <c r="D204" t="s">
-        <v>171</v>
-      </c>
-      <c r="E204" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>21330051920280</v>
-      </c>
-      <c r="B205" t="s">
-        <v>103</v>
-      </c>
-      <c r="C205" t="s">
-        <v>80</v>
-      </c>
-      <c r="D205" t="s">
-        <v>171</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>21330051920281</v>
-      </c>
-      <c r="B206" t="s">
-        <v>104</v>
-      </c>
-      <c r="C206" t="s">
-        <v>95</v>
-      </c>
-      <c r="D206" t="s">
-        <v>172</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>21330051920281</v>
-      </c>
-      <c r="B207" t="s">
-        <v>104</v>
-      </c>
-      <c r="C207" t="s">
-        <v>95</v>
-      </c>
-      <c r="D207" t="s">
-        <v>172</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
-      </c>
-      <c r="F207" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>21330051920281</v>
-      </c>
-      <c r="B208" t="s">
-        <v>104</v>
-      </c>
-      <c r="C208" t="s">
-        <v>95</v>
-      </c>
-      <c r="D208" t="s">
-        <v>172</v>
-      </c>
-      <c r="E208" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>21330051920281</v>
-      </c>
-      <c r="B209" t="s">
-        <v>104</v>
-      </c>
-      <c r="C209" t="s">
-        <v>95</v>
-      </c>
-      <c r="D209" t="s">
-        <v>172</v>
-      </c>
-      <c r="E209" t="s">
-        <v>6</v>
-      </c>
-      <c r="F209" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>21330051920281</v>
-      </c>
-      <c r="B210" t="s">
-        <v>104</v>
-      </c>
-      <c r="C210" t="s">
-        <v>95</v>
-      </c>
-      <c r="D210" t="s">
-        <v>172</v>
-      </c>
-      <c r="E210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F210" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>21330051920281</v>
-      </c>
-      <c r="B211" t="s">
-        <v>104</v>
-      </c>
-      <c r="C211" t="s">
-        <v>95</v>
-      </c>
-      <c r="D211" t="s">
-        <v>172</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>21330051920282</v>
-      </c>
-      <c r="B212" t="s">
-        <v>105</v>
-      </c>
-      <c r="C212" t="s">
-        <v>134</v>
-      </c>
-      <c r="D212" t="s">
-        <v>173</v>
-      </c>
-      <c r="E212" t="s">
-        <v>8</v>
-      </c>
-      <c r="F212" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>21330051920282</v>
-      </c>
-      <c r="B213" t="s">
-        <v>105</v>
-      </c>
-      <c r="C213" t="s">
-        <v>134</v>
-      </c>
-      <c r="D213" t="s">
-        <v>173</v>
-      </c>
-      <c r="E213" t="s">
-        <v>7</v>
-      </c>
-      <c r="F213" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>21330051920282</v>
-      </c>
-      <c r="B214" t="s">
-        <v>105</v>
-      </c>
-      <c r="C214" t="s">
-        <v>134</v>
-      </c>
-      <c r="D214" t="s">
-        <v>173</v>
-      </c>
-      <c r="E214" t="s">
-        <v>5</v>
-      </c>
-      <c r="F214" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>21330051920282</v>
-      </c>
-      <c r="B215" t="s">
-        <v>105</v>
-      </c>
-      <c r="C215" t="s">
-        <v>134</v>
-      </c>
-      <c r="D215" t="s">
-        <v>173</v>
-      </c>
-      <c r="E215" t="s">
-        <v>6</v>
-      </c>
-      <c r="F215" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>21330051920282</v>
-      </c>
-      <c r="B216" t="s">
-        <v>105</v>
-      </c>
-      <c r="C216" t="s">
-        <v>134</v>
-      </c>
-      <c r="D216" t="s">
-        <v>173</v>
-      </c>
-      <c r="E216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>21330051920282</v>
-      </c>
-      <c r="B217" t="s">
-        <v>105</v>
-      </c>
-      <c r="C217" t="s">
-        <v>134</v>
-      </c>
-      <c r="D217" t="s">
-        <v>173</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>21330051920283</v>
-      </c>
-      <c r="B218" t="s">
-        <v>106</v>
-      </c>
-      <c r="C218" t="s">
-        <v>113</v>
-      </c>
-      <c r="D218" t="s">
-        <v>174</v>
-      </c>
-      <c r="E218" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>21330051920283</v>
-      </c>
-      <c r="B219" t="s">
-        <v>106</v>
-      </c>
-      <c r="C219" t="s">
-        <v>113</v>
-      </c>
-      <c r="D219" t="s">
-        <v>174</v>
-      </c>
-      <c r="E219" t="s">
-        <v>7</v>
-      </c>
-      <c r="F219" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>21330051920283</v>
-      </c>
-      <c r="B220" t="s">
-        <v>106</v>
-      </c>
-      <c r="C220" t="s">
-        <v>113</v>
-      </c>
-      <c r="D220" t="s">
-        <v>174</v>
-      </c>
-      <c r="E220" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>21330051920283</v>
-      </c>
-      <c r="B221" t="s">
-        <v>106</v>
-      </c>
-      <c r="C221" t="s">
-        <v>113</v>
-      </c>
-      <c r="D221" t="s">
-        <v>174</v>
-      </c>
-      <c r="E221" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>21330051920283</v>
-      </c>
-      <c r="B222" t="s">
-        <v>106</v>
-      </c>
-      <c r="C222" t="s">
-        <v>113</v>
-      </c>
-      <c r="D222" t="s">
-        <v>174</v>
-      </c>
-      <c r="E222" t="s">
-        <v>10</v>
-      </c>
-      <c r="F222" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>21330051920283</v>
-      </c>
-      <c r="B223" t="s">
-        <v>106</v>
-      </c>
-      <c r="C223" t="s">
-        <v>113</v>
-      </c>
-      <c r="D223" t="s">
-        <v>174</v>
-      </c>
-      <c r="E223" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>21330051920284</v>
-      </c>
-      <c r="B224" t="s">
-        <v>107</v>
-      </c>
-      <c r="C224" t="s">
-        <v>135</v>
-      </c>
-      <c r="D224" t="s">
-        <v>175</v>
-      </c>
-      <c r="E224" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>21330051920284</v>
-      </c>
-      <c r="B225" t="s">
-        <v>107</v>
-      </c>
-      <c r="C225" t="s">
-        <v>135</v>
-      </c>
-      <c r="D225" t="s">
-        <v>175</v>
-      </c>
-      <c r="E225" t="s">
-        <v>7</v>
-      </c>
-      <c r="F225" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>21330051920284</v>
-      </c>
-      <c r="B226" t="s">
-        <v>107</v>
-      </c>
-      <c r="C226" t="s">
-        <v>135</v>
-      </c>
-      <c r="D226" t="s">
-        <v>175</v>
-      </c>
-      <c r="E226" t="s">
-        <v>5</v>
-      </c>
-      <c r="F226" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>21330051920284</v>
-      </c>
-      <c r="B227" t="s">
-        <v>107</v>
-      </c>
-      <c r="C227" t="s">
-        <v>135</v>
-      </c>
-      <c r="D227" t="s">
-        <v>175</v>
-      </c>
-      <c r="E227" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>21330051920284</v>
-      </c>
-      <c r="B228" t="s">
-        <v>107</v>
-      </c>
-      <c r="C228" t="s">
-        <v>135</v>
-      </c>
-      <c r="D228" t="s">
-        <v>175</v>
-      </c>
-      <c r="E228" t="s">
-        <v>10</v>
-      </c>
-      <c r="F228" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>21330051920284</v>
-      </c>
-      <c r="B229" t="s">
-        <v>107</v>
-      </c>
-      <c r="C229" t="s">
-        <v>135</v>
-      </c>
-      <c r="D229" t="s">
-        <v>175</v>
-      </c>
-      <c r="E229" t="s">
-        <v>9</v>
-      </c>
-      <c r="F229" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230">
-        <v>21330051920285</v>
-      </c>
-      <c r="B230" t="s">
-        <v>108</v>
-      </c>
-      <c r="C230" t="s">
-        <v>95</v>
-      </c>
-      <c r="D230" t="s">
-        <v>176</v>
-      </c>
-      <c r="E230" t="s">
-        <v>8</v>
-      </c>
-      <c r="F230" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231">
-        <v>21330051920285</v>
-      </c>
-      <c r="B231" t="s">
-        <v>108</v>
-      </c>
-      <c r="C231" t="s">
-        <v>95</v>
-      </c>
-      <c r="D231" t="s">
-        <v>176</v>
-      </c>
-      <c r="E231" t="s">
-        <v>7</v>
-      </c>
-      <c r="F231" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
-        <v>21330051920285</v>
-      </c>
-      <c r="B232" t="s">
-        <v>108</v>
-      </c>
-      <c r="C232" t="s">
-        <v>95</v>
-      </c>
-      <c r="D232" t="s">
-        <v>176</v>
-      </c>
-      <c r="E232" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233">
-        <v>21330051920285</v>
-      </c>
-      <c r="B233" t="s">
-        <v>108</v>
-      </c>
-      <c r="C233" t="s">
-        <v>95</v>
-      </c>
-      <c r="D233" t="s">
-        <v>176</v>
-      </c>
-      <c r="E233" t="s">
-        <v>6</v>
-      </c>
-      <c r="F233" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234">
-        <v>21330051920285</v>
-      </c>
-      <c r="B234" t="s">
-        <v>108</v>
-      </c>
-      <c r="C234" t="s">
-        <v>95</v>
-      </c>
-      <c r="D234" t="s">
-        <v>176</v>
-      </c>
-      <c r="E234" t="s">
-        <v>10</v>
-      </c>
-      <c r="F234" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235">
-        <v>21330051920285</v>
-      </c>
-      <c r="B235" t="s">
-        <v>108</v>
-      </c>
-      <c r="C235" t="s">
-        <v>95</v>
-      </c>
-      <c r="D235" t="s">
-        <v>176</v>
-      </c>
-      <c r="E235" t="s">
-        <v>9</v>
-      </c>
-      <c r="F235" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236">
-        <v>21330051920286</v>
-      </c>
-      <c r="B236" t="s">
-        <v>109</v>
-      </c>
-      <c r="C236" t="s">
-        <v>94</v>
-      </c>
-      <c r="D236" t="s">
-        <v>177</v>
-      </c>
-      <c r="E236" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237">
-        <v>21330051920286</v>
-      </c>
-      <c r="B237" t="s">
-        <v>109</v>
-      </c>
-      <c r="C237" t="s">
-        <v>94</v>
-      </c>
-      <c r="D237" t="s">
-        <v>177</v>
-      </c>
-      <c r="E237" t="s">
-        <v>7</v>
-      </c>
-      <c r="F237" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238">
-        <v>21330051920286</v>
-      </c>
-      <c r="B238" t="s">
-        <v>109</v>
-      </c>
-      <c r="C238" t="s">
-        <v>94</v>
-      </c>
-      <c r="D238" t="s">
-        <v>177</v>
-      </c>
-      <c r="E238" t="s">
-        <v>5</v>
-      </c>
-      <c r="F238" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239">
-        <v>21330051920286</v>
-      </c>
-      <c r="B239" t="s">
-        <v>109</v>
-      </c>
-      <c r="C239" t="s">
-        <v>94</v>
-      </c>
-      <c r="D239" t="s">
-        <v>177</v>
-      </c>
-      <c r="E239" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240">
-        <v>21330051920286</v>
-      </c>
-      <c r="B240" t="s">
-        <v>109</v>
-      </c>
-      <c r="C240" t="s">
-        <v>94</v>
-      </c>
-      <c r="D240" t="s">
-        <v>177</v>
-      </c>
-      <c r="E240" t="s">
-        <v>10</v>
-      </c>
-      <c r="F240" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>21330051920286</v>
-      </c>
-      <c r="B241" t="s">
-        <v>109</v>
-      </c>
-      <c r="C241" t="s">
-        <v>94</v>
-      </c>
-      <c r="D241" t="s">
-        <v>177</v>
-      </c>
-      <c r="E241" t="s">
-        <v>9</v>
-      </c>
-      <c r="F241" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242">
-        <v>20330051920358</v>
-      </c>
-      <c r="B242" t="s">
-        <v>110</v>
-      </c>
-      <c r="C242" t="s">
-        <v>136</v>
-      </c>
-      <c r="D242" t="s">
-        <v>178</v>
-      </c>
-      <c r="E242" t="s">
-        <v>8</v>
-      </c>
-      <c r="F242" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243">
-        <v>20330051920358</v>
-      </c>
-      <c r="B243" t="s">
-        <v>110</v>
-      </c>
-      <c r="C243" t="s">
-        <v>136</v>
-      </c>
-      <c r="D243" t="s">
-        <v>178</v>
-      </c>
-      <c r="E243" t="s">
-        <v>7</v>
-      </c>
-      <c r="F243" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244">
-        <v>20330051920358</v>
-      </c>
-      <c r="B244" t="s">
-        <v>110</v>
-      </c>
-      <c r="C244" t="s">
-        <v>136</v>
-      </c>
-      <c r="D244" t="s">
-        <v>178</v>
-      </c>
-      <c r="E244" t="s">
-        <v>5</v>
-      </c>
-      <c r="F244" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245">
-        <v>20330051920358</v>
-      </c>
-      <c r="B245" t="s">
-        <v>110</v>
-      </c>
-      <c r="C245" t="s">
-        <v>136</v>
-      </c>
-      <c r="D245" t="s">
-        <v>178</v>
-      </c>
-      <c r="E245" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246">
-        <v>20330051920358</v>
-      </c>
-      <c r="B246" t="s">
-        <v>110</v>
-      </c>
-      <c r="C246" t="s">
-        <v>136</v>
-      </c>
-      <c r="D246" t="s">
-        <v>178</v>
-      </c>
-      <c r="E246" t="s">
-        <v>10</v>
-      </c>
-      <c r="F246" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247">
-        <v>20330051920358</v>
-      </c>
-      <c r="B247" t="s">
-        <v>110</v>
-      </c>
-      <c r="C247" t="s">
-        <v>136</v>
-      </c>
-      <c r="D247" t="s">
-        <v>178</v>
-      </c>
-      <c r="E247" t="s">
-        <v>9</v>
-      </c>
-      <c r="F247" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248">
-        <v>21330051920287</v>
-      </c>
-      <c r="B248" t="s">
-        <v>111</v>
-      </c>
-      <c r="C248" t="s">
-        <v>137</v>
-      </c>
-      <c r="D248" t="s">
-        <v>179</v>
-      </c>
-      <c r="E248" t="s">
-        <v>8</v>
-      </c>
-      <c r="F248" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249">
-        <v>21330051920287</v>
-      </c>
-      <c r="B249" t="s">
-        <v>111</v>
-      </c>
-      <c r="C249" t="s">
-        <v>137</v>
-      </c>
-      <c r="D249" t="s">
-        <v>179</v>
-      </c>
-      <c r="E249" t="s">
-        <v>7</v>
-      </c>
-      <c r="F249" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250">
-        <v>21330051920287</v>
-      </c>
-      <c r="B250" t="s">
-        <v>111</v>
-      </c>
-      <c r="C250" t="s">
-        <v>137</v>
-      </c>
-      <c r="D250" t="s">
-        <v>179</v>
-      </c>
-      <c r="E250" t="s">
-        <v>5</v>
-      </c>
-      <c r="F250" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251">
-        <v>21330051920287</v>
-      </c>
-      <c r="B251" t="s">
-        <v>111</v>
-      </c>
-      <c r="C251" t="s">
-        <v>137</v>
-      </c>
-      <c r="D251" t="s">
-        <v>179</v>
-      </c>
-      <c r="E251" t="s">
-        <v>6</v>
-      </c>
-      <c r="F251" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252">
-        <v>21330051920287</v>
-      </c>
-      <c r="B252" t="s">
-        <v>111</v>
-      </c>
-      <c r="C252" t="s">
-        <v>137</v>
-      </c>
-      <c r="D252" t="s">
-        <v>179</v>
-      </c>
-      <c r="E252" t="s">
-        <v>10</v>
-      </c>
-      <c r="F252" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253">
-        <v>21330051920287</v>
-      </c>
-      <c r="B253" t="s">
-        <v>111</v>
-      </c>
-      <c r="C253" t="s">
-        <v>137</v>
-      </c>
-      <c r="D253" t="s">
-        <v>179</v>
-      </c>
-      <c r="E253" t="s">
-        <v>9</v>
-      </c>
-      <c r="F253" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254">
-        <v>21330051920288</v>
-      </c>
-      <c r="B254" t="s">
-        <v>112</v>
-      </c>
-      <c r="C254" t="s">
-        <v>138</v>
-      </c>
-      <c r="D254" t="s">
-        <v>180</v>
-      </c>
-      <c r="E254" t="s">
-        <v>8</v>
-      </c>
-      <c r="F254" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255">
-        <v>21330051920288</v>
-      </c>
-      <c r="B255" t="s">
-        <v>112</v>
-      </c>
-      <c r="C255" t="s">
-        <v>138</v>
-      </c>
-      <c r="D255" t="s">
-        <v>180</v>
-      </c>
-      <c r="E255" t="s">
-        <v>7</v>
-      </c>
-      <c r="F255" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256">
-        <v>21330051920288</v>
-      </c>
-      <c r="B256" t="s">
-        <v>112</v>
-      </c>
-      <c r="C256" t="s">
-        <v>138</v>
-      </c>
-      <c r="D256" t="s">
-        <v>180</v>
-      </c>
-      <c r="E256" t="s">
-        <v>5</v>
-      </c>
-      <c r="F256" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257">
-        <v>21330051920288</v>
-      </c>
-      <c r="B257" t="s">
-        <v>112</v>
-      </c>
-      <c r="C257" t="s">
-        <v>138</v>
-      </c>
-      <c r="D257" t="s">
-        <v>180</v>
-      </c>
-      <c r="E257" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258">
-        <v>21330051920288</v>
-      </c>
-      <c r="B258" t="s">
-        <v>112</v>
-      </c>
-      <c r="C258" t="s">
-        <v>138</v>
-      </c>
-      <c r="D258" t="s">
-        <v>180</v>
-      </c>
-      <c r="E258" t="s">
-        <v>10</v>
-      </c>
-      <c r="F258" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259">
-        <v>21330051920288</v>
-      </c>
-      <c r="B259" t="s">
-        <v>112</v>
-      </c>
-      <c r="C259" t="s">
-        <v>138</v>
-      </c>
-      <c r="D259" t="s">
-        <v>180</v>
-      </c>
-      <c r="E259" t="s">
-        <v>9</v>
-      </c>
-      <c r="F259" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -9834,16 +5934,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>21330051920251</v>
+        <v>21330051920261</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -9854,568 +5954,568 @@
         <v>21330051920252</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920253</v>
+        <v>21330051920265</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21330051920254</v>
+        <v>21330051920267</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920255</v>
+        <v>21330051920273</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>21330051920256</v>
+        <v>21330051920262</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>21330051920257</v>
+        <v>21330051920269</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920258</v>
+        <v>21330051920274</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>21330051920259</v>
+        <v>21330051920281</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920260</v>
+        <v>21330051920282</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920261</v>
+        <v>21330051920285</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920360</v>
+        <v>21330051920358</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920262</v>
+        <v>21330051920277</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920263</v>
+        <v>21330051920284</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920264</v>
+        <v>21330051920253</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920265</v>
+        <v>21330051920257</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920266</v>
+        <v>21330051920360</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920267</v>
+        <v>21330051920266</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920358</v>
+        <v>21330051920271</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920268</v>
+        <v>21330051920283</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
         <v>126</v>
       </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
       <c r="E21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920269</v>
+        <v>21330051920288</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920270</v>
+        <v>21330051920251</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920271</v>
+        <v>21330051920254</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21330051920272</v>
+        <v>21330051920255</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21330051920273</v>
+        <v>21330051920256</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21330051920274</v>
+        <v>21330051920258</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21330051920361</v>
+        <v>21330051920259</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21330051920275</v>
+        <v>21330051920260</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21330051920362</v>
+        <v>21330051920263</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21330051920276</v>
+        <v>21330051920264</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
         <v>167</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21330051920277</v>
+        <v>21330051920268</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
         <v>168</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21330051920278</v>
+        <v>21330051920270</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
         <v>169</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>21330051920279</v>
+        <v>21330051920272</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
         <v>170</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21330051920280</v>
+        <v>21330051920361</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
         <v>171</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21330051920281</v>
+        <v>21330051920275</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
         <v>95</v>
@@ -10424,143 +6524,143 @@
         <v>172</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21330051920282</v>
+        <v>21330051920362</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
         <v>173</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>21330051920283</v>
+        <v>21330051920276</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
         <v>174</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21330051920284</v>
+        <v>21330051920278</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
         <v>175</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>21330051920285</v>
+        <v>21330051920279</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
         <v>176</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>21330051920286</v>
+        <v>21330051920280</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
         <v>177</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>20330051920358</v>
+        <v>21330051920286</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
         <v>178</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>21330051920287</v>
+        <v>20330051920358</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
         <v>179</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>21330051920288</v>
+        <v>21330051920287</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
         <v>180</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10570,7 +6670,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10608,13 +6708,13 @@
         <v>21330051920358</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -10631,13 +6731,13 @@
         <v>21330051920358</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -10654,13 +6754,13 @@
         <v>21330051920277</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -10677,13 +6777,13 @@
         <v>21330051920277</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -10700,13 +6800,13 @@
         <v>21330051920284</v>
       </c>
       <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
         <v>107</v>
       </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -10723,13 +6823,13 @@
         <v>21330051920284</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>107</v>
       </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -10746,13 +6846,13 @@
         <v>21330051920288</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -10769,13 +6869,13 @@
         <v>21330051920288</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -10789,16 +6889,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920251</v>
+        <v>21330051920253</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -10812,16 +6912,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920253</v>
+        <v>21330051920257</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -10835,16 +6935,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920257</v>
+        <v>21330051920360</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -10858,16 +6958,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920360</v>
+        <v>21330051920266</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -10881,22 +6981,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>21330051920266</v>
+        <v>21330051920271</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -10904,93 +7004,24 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>21330051920271</v>
+        <v>21330051920283</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>21330051920278</v>
-      </c>
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>21330051920283</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>21330051920286</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/1DM - Estadisticos 20211.xlsx
+++ b/grupos/1DM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="181">
   <si>
     <t>Materia</t>
   </si>
@@ -368,160 +368,160 @@
     <t>RICARDO ABEL</t>
   </si>
   <si>
+    <t>ANGELO RENE</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>LUIS ARMANDO</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>MARIANA PAOLA</t>
+  </si>
+  <si>
+    <t>ANGELICA NAOMI</t>
+  </si>
+  <si>
+    <t>BRYAN ABRAHAM</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>NANCY PAOLA</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>CRESCENCIO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>PATIÑO</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>PETRILLI</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>BENITO</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>ARAUZ</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>AMECA</t>
+  </si>
+  <si>
+    <t>YARELI</t>
+  </si>
+  <si>
+    <t>NADIA</t>
+  </si>
+  <si>
+    <t>JESUS EMMANUEL</t>
+  </si>
+  <si>
+    <t>SUGHEYDI JAZMIN</t>
+  </si>
+  <si>
+    <t>EMILIANO</t>
+  </si>
+  <si>
+    <t>LESLY JAREDT</t>
+  </si>
+  <si>
+    <t>MARIA TERESA</t>
+  </si>
+  <si>
+    <t>VENUS</t>
+  </si>
+  <si>
     <t>BIBIAN YANEL</t>
-  </si>
-  <si>
-    <t>ANGELO RENE</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
-    <t>LUIS ARMANDO</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>MARIANA PAOLA</t>
-  </si>
-  <si>
-    <t>ANGELICA NAOMI</t>
-  </si>
-  <si>
-    <t>BRYAN ABRAHAM</t>
-  </si>
-  <si>
-    <t>CARLOS ROBERTO</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>NANCY PAOLA</t>
-  </si>
-  <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>CRESCENCIO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>PATIÑO</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>VENEGAS</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>PETRILLI</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>BENITO</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>ARAUZ</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>AMECA</t>
-  </si>
-  <si>
-    <t>YARELI</t>
-  </si>
-  <si>
-    <t>NADIA</t>
-  </si>
-  <si>
-    <t>JESUS EMMANUEL</t>
-  </si>
-  <si>
-    <t>SUGHEYDI JAZMIN</t>
-  </si>
-  <si>
-    <t>EMILIANO</t>
-  </si>
-  <si>
-    <t>LESLY JAREDT</t>
-  </si>
-  <si>
-    <t>MARIA TERESA</t>
-  </si>
-  <si>
-    <t>VENUS</t>
   </si>
   <si>
     <t>DULCE NAOMI</t>
@@ -2364,7 +2364,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -2418,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W21">
         <v>6</v>
@@ -4420,13 +4420,13 @@
         <v>43</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>58.14</v>
+        <v>60.47</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>7.4</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>41.86</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4608,7 +4608,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5100,22 +5100,22 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920266</v>
+        <v>21330051920267</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5129,13 +5129,13 @@
         <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5149,13 +5149,13 @@
         <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5169,13 +5169,13 @@
         <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5189,33 +5189,33 @@
         <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>21330051920267</v>
+        <v>21330051920358</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5229,33 +5229,33 @@
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920358</v>
+        <v>21330051920269</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5269,13 +5269,13 @@
         <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5289,13 +5289,13 @@
         <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5309,53 +5309,53 @@
         <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920269</v>
+        <v>21330051920271</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
         <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920271</v>
+        <v>21330051920273</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
         <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5369,13 +5369,13 @@
         <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5389,13 +5389,13 @@
         <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5409,13 +5409,13 @@
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5429,33 +5429,33 @@
         <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>21330051920273</v>
+        <v>21330051920274</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5469,13 +5469,13 @@
         <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5489,13 +5489,13 @@
         <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5509,33 +5509,33 @@
         <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>21330051920274</v>
+        <v>21330051920277</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
         <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5549,33 +5549,33 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21330051920277</v>
+        <v>21330051920281</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
         <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5589,13 +5589,13 @@
         <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5609,13 +5609,13 @@
         <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5629,33 +5629,33 @@
         <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>21330051920281</v>
+        <v>21330051920282</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
         <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5669,13 +5669,13 @@
         <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5689,13 +5689,13 @@
         <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5709,53 +5709,53 @@
         <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>21330051920282</v>
+        <v>21330051920283</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
         <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>21330051920283</v>
+        <v>21330051920284</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
         <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5769,33 +5769,33 @@
         <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>21330051920284</v>
+        <v>21330051920285</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
         <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5809,13 +5809,13 @@
         <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5829,13 +5829,13 @@
         <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5849,52 +5849,32 @@
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>21330051920285</v>
+        <v>21330051920288</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
         <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>21330051920288</v>
-      </c>
-      <c r="B64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5994,7 +5974,7 @@
         <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -6011,7 +5991,7 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -6045,7 +6025,7 @@
         <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -6062,7 +6042,7 @@
         <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -6079,7 +6059,7 @@
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -6096,7 +6076,7 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -6113,7 +6093,7 @@
         <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -6130,7 +6110,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -6147,7 +6127,7 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -6164,7 +6144,7 @@
         <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -6223,16 +6203,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920266</v>
+        <v>21330051920271</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -6240,16 +6220,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920271</v>
+        <v>21330051920283</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -6257,16 +6237,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920283</v>
+        <v>21330051920288</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -6274,30 +6254,30 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920288</v>
+        <v>21330051920251</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920251</v>
+        <v>21330051920254</v>
       </c>
       <c r="B23" t="s">
         <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
         <v>160</v>
@@ -6308,13 +6288,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920254</v>
+        <v>21330051920255</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>161</v>
@@ -6325,13 +6305,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21330051920255</v>
+        <v>21330051920256</v>
       </c>
       <c r="B25" t="s">
         <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
         <v>162</v>
@@ -6342,10 +6322,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21330051920256</v>
+        <v>21330051920258</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>148</v>
@@ -6359,13 +6339,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21330051920258</v>
+        <v>21330051920259</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>164</v>
@@ -6376,13 +6356,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21330051920259</v>
+        <v>21330051920260</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
         <v>165</v>
@@ -6393,16 +6373,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21330051920260</v>
+        <v>21330051920263</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6410,7 +6390,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21330051920263</v>
+        <v>21330051920264</v>
       </c>
       <c r="B30" t="s">
         <v>135</v>
@@ -6419,7 +6399,7 @@
         <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6427,13 +6407,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21330051920264</v>
+        <v>21330051920266</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
         <v>167</v>
@@ -6447,10 +6427,10 @@
         <v>21330051920268</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
         <v>168</v>
@@ -6464,7 +6444,7 @@
         <v>21330051920270</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
@@ -6484,7 +6464,7 @@
         <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
         <v>170</v>
@@ -6515,7 +6495,7 @@
         <v>21330051920275</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
         <v>95</v>
@@ -6532,10 +6512,10 @@
         <v>21330051920362</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
         <v>173</v>
@@ -6549,10 +6529,10 @@
         <v>21330051920276</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
         <v>174</v>
@@ -6566,10 +6546,10 @@
         <v>21330051920278</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
         <v>175</v>
@@ -6583,10 +6563,10 @@
         <v>21330051920279</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>176</v>
@@ -6617,7 +6597,7 @@
         <v>21330051920286</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
         <v>101</v>
@@ -6634,10 +6614,10 @@
         <v>20330051920358</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
         <v>179</v>
@@ -6651,10 +6631,10 @@
         <v>21330051920287</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
         <v>180</v>
@@ -6670,7 +6650,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6714,7 +6694,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -6737,7 +6717,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -6760,7 +6740,7 @@
         <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -6783,7 +6763,7 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -6806,7 +6786,7 @@
         <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -6829,7 +6809,7 @@
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -6852,7 +6832,7 @@
         <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -6875,7 +6855,7 @@
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -6958,22 +6938,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920266</v>
+        <v>21330051920271</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -6981,47 +6961,24 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>21330051920271</v>
+        <v>21330051920283</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21330051920283</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15">
         <v>-1</v>
       </c>
     </row>
